--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2847654.663802952</v>
+        <v>2846865.6246077</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5736895.963613642</v>
+        <v>5851605.6153303</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169739.126259459</v>
+        <v>864456.6793124476</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6575039.783803716</v>
+        <v>6638614.636573133</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>159.1212978108371</v>
       </c>
       <c r="E2" t="n">
-        <v>67.95124614579186</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.9000023092308</v>
+        <v>1.929060266079339</v>
       </c>
       <c r="C3" t="n">
-        <v>132.6551205385439</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
         <v>115.7281862028015</v>
@@ -758,7 +758,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>174.5627220424961</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
@@ -828,7 +828,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>220.2647746254032</v>
       </c>
       <c r="X4" t="n">
-        <v>92.27358312388742</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
@@ -961,10 +961,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>201.0530143200481</v>
       </c>
       <c r="Y5" t="n">
-        <v>16.14197242058547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>149.8451987105456</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
@@ -1116,7 +1116,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>28.01490760909618</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
@@ -1147,10 +1147,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>386.4457793822963</v>
       </c>
       <c r="H8" t="n">
-        <v>30.96478812835956</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>172.5810626330715</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C11" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D11" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E11" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F11" t="n">
         <v>387.3211661995113</v>
@@ -1387,10 +1387,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H11" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I11" t="n">
-        <v>55.98930332975954</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T11" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862723</v>
       </c>
       <c r="U11" t="n">
         <v>224.990945096747</v>
@@ -1435,7 +1435,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X11" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y11" t="n">
         <v>367.4283645950528</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.3237676037659</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C13" t="n">
-        <v>139.8834969875626</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D13" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>133.4858729041766</v>
+        <v>89.08027825565931</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22182322499828</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501631</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>250.4712242529991</v>
       </c>
       <c r="V13" t="n">
-        <v>241.6479458835352</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W13" t="n">
-        <v>246.7800261198763</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X13" t="n">
-        <v>206.4614817925754</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>376.620026141506</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C14" t="n">
         <v>376.5244030535246</v>
       </c>
       <c r="D14" t="n">
-        <v>370.9203488815321</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E14" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F14" t="n">
-        <v>387.3211661995114</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G14" t="n">
-        <v>375.1420595397582</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H14" t="n">
-        <v>278.3004706722213</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I14" t="n">
-        <v>55.98930332975961</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U14" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967475</v>
       </c>
       <c r="V14" t="n">
-        <v>316.8402373905462</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W14" t="n">
-        <v>350.4237561298452</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X14" t="n">
-        <v>367.1380221263991</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y14" t="n">
-        <v>367.4283645950529</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="15">
@@ -1767,10 +1767,10 @@
         <v>156.323767603766</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>33.12209635668106</v>
       </c>
       <c r="D16" t="n">
-        <v>88.04314577169704</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S16" t="n">
-        <v>155.0289087125509</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T16" t="n">
-        <v>207.654309906727</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U16" t="n">
         <v>250.4712242529991</v>
@@ -1833,7 +1833,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y16" t="n">
-        <v>192.989399898785</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415074</v>
       </c>
       <c r="C17" t="n">
         <v>376.5244030535246</v>
       </c>
       <c r="D17" t="n">
-        <v>370.9203488815321</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E17" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F17" t="n">
-        <v>387.3211661995114</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G17" t="n">
-        <v>375.1420595397582</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H17" t="n">
-        <v>278.3004706722205</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I17" t="n">
-        <v>55.98930332975961</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>224.990945096747</v>
       </c>
       <c r="V17" t="n">
-        <v>316.8402373905462</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W17" t="n">
-        <v>350.4237561298452</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X17" t="n">
-        <v>367.1380221263991</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y17" t="n">
-        <v>367.4283645950529</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="18">
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>80.93046419224771</v>
+        <v>35.15851351126691</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D19" t="n">
         <v>128.4007565039811</v>
@@ -2019,10 +2019,10 @@
         <v>136.078945437374</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I19" t="n">
-        <v>85.68364371037914</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501638</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>155.0289087125509</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T19" t="n">
-        <v>207.654309906727</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U19" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W19" t="n">
         <v>246.7800261198764</v>
       </c>
       <c r="X19" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>192.989399898785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2086,22 +2086,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D20" t="n">
-        <v>370.9203488815321</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E20" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F20" t="n">
-        <v>387.3211661995114</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G20" t="n">
-        <v>375.1420595397582</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H20" t="n">
-        <v>278.3004706722213</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I20" t="n">
-        <v>55.98930332975961</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>224.990945096747</v>
       </c>
       <c r="V20" t="n">
-        <v>316.8402373905462</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W20" t="n">
-        <v>350.4237561298452</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X20" t="n">
-        <v>367.1380221263991</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y20" t="n">
-        <v>367.4283645950529</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="21">
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C22" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>69.53856615297224</v>
       </c>
       <c r="G22" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S22" t="n">
-        <v>155.0289087125509</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>207.654309906727</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U22" t="n">
-        <v>218.8756952035255</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V22" t="n">
         <v>241.6479458835353</v>
@@ -2307,7 +2307,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y22" t="n">
-        <v>192.989399898785</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="23">
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C23" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D23" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E23" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F23" t="n">
         <v>387.3211661995113</v>
@@ -2335,10 +2335,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H23" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I23" t="n">
-        <v>55.98930332975959</v>
+        <v>55.98930332975951</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T23" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U23" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V23" t="n">
         <v>316.8402373905461</v>
@@ -2383,7 +2383,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X23" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y23" t="n">
         <v>367.4283645950528</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>139.8834969875627</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D25" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>129.8027652540258</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F25" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H25" t="n">
-        <v>17.75041835498709</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501637</v>
+        <v>54.92104941501628</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T25" t="n">
-        <v>207.654309906727</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V25" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>30.46068240136192</v>
       </c>
       <c r="X25" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y25" t="n">
         <v>192.9893998987849</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>390.4479524106875</v>
+        <v>376.6200261415078</v>
       </c>
       <c r="C26" t="n">
-        <v>390.3523293227055</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D26" t="n">
-        <v>384.748275150713</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E26" t="n">
-        <v>187.1069038334014</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F26" t="n">
-        <v>401.1490924686922</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G26" t="n">
-        <v>388.969985808939</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H26" t="n">
-        <v>292.1283969414021</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I26" t="n">
-        <v>69.81722959894053</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>118.2572489966831</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T26" t="n">
-        <v>204.3134037554527</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U26" t="n">
-        <v>238.8188713659279</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V26" t="n">
-        <v>330.668163659727</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W26" t="n">
-        <v>364.251682399026</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X26" t="n">
-        <v>380.9659483955799</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y26" t="n">
-        <v>381.2562908642337</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="27">
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>170.1516938729469</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C28" t="n">
-        <v>153.7114232567436</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>142.228682773162</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>143.6306915232067</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>147.3137991733576</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G28" t="n">
-        <v>149.906871706555</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>132.4403651854409</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.8568349817318</v>
+        <v>109.5861815800724</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W28" t="n">
-        <v>1.63110894825164</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X28" t="n">
-        <v>220.2894080617564</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y28" t="n">
-        <v>206.8173261679659</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>390.4479524106874</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C29" t="n">
-        <v>390.3523293227054</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D29" t="n">
-        <v>384.7482751507129</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E29" t="n">
-        <v>394.5257978711151</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F29" t="n">
-        <v>401.1490924686922</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G29" t="n">
-        <v>388.969985808939</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H29" t="n">
-        <v>292.1283969414021</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I29" t="n">
-        <v>69.81722959894046</v>
+        <v>55.98930332976064</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T29" t="n">
-        <v>115.1517587144228</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U29" t="n">
-        <v>238.8188713659279</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V29" t="n">
-        <v>330.668163659727</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W29" t="n">
-        <v>364.251682399026</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X29" t="n">
-        <v>380.9659483955799</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y29" t="n">
-        <v>381.2562908642337</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>109.5861815800725</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.74897568419723</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.8568349817317</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.4822361759078</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U31" t="n">
-        <v>264.29915052218</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V31" t="n">
-        <v>255.4758721527161</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W31" t="n">
-        <v>260.6079523890572</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X31" t="n">
-        <v>220.2894080617563</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y31" t="n">
-        <v>177.2177756835724</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.4479524106874</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C32" t="n">
-        <v>390.3523293227054</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D32" t="n">
-        <v>384.7482751507129</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E32" t="n">
-        <v>394.5257978711151</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F32" t="n">
-        <v>401.1490924686922</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G32" t="n">
-        <v>388.969985808939</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H32" t="n">
-        <v>292.1283969414021</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>104.429322727504</v>
       </c>
       <c r="T32" t="n">
-        <v>204.3134037554526</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U32" t="n">
-        <v>238.8188713659279</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V32" t="n">
-        <v>311.3237482176373</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W32" t="n">
-        <v>364.251682399026</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X32" t="n">
-        <v>380.9659483955799</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y32" t="n">
-        <v>381.2562908642337</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>170.1516938729468</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C34" t="n">
-        <v>153.7114232567435</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>142.2286827731619</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>143.6306915232066</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F34" t="n">
-        <v>147.3137991733575</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>149.9068717065549</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>132.4403651854408</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>99.51156997955999</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>113.2692892302235</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W34" t="n">
-        <v>260.6079523890572</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X34" t="n">
-        <v>220.2894080617563</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y34" t="n">
-        <v>17.18574772933334</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>390.4479524106874</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C35" t="n">
-        <v>390.3523293227054</v>
+        <v>376.5244030535258</v>
       </c>
       <c r="D35" t="n">
-        <v>384.7482751507129</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E35" t="n">
-        <v>394.5257978711151</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F35" t="n">
-        <v>193.7301984309789</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G35" t="n">
-        <v>388.969985808939</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H35" t="n">
-        <v>292.1283969414021</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I35" t="n">
-        <v>69.81722959894046</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>118.257248996683</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T35" t="n">
-        <v>204.3134037554526</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U35" t="n">
-        <v>238.8188713659279</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V35" t="n">
-        <v>330.668163659727</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W35" t="n">
-        <v>364.251682399026</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X35" t="n">
-        <v>380.9659483955799</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y35" t="n">
-        <v>381.2562908642337</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>170.1516938729468</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C37" t="n">
-        <v>153.7114232567435</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D37" t="n">
-        <v>142.2286827731619</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E37" t="n">
-        <v>143.6306915232066</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F37" t="n">
-        <v>147.3137991733575</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>149.9068717065549</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>132.4403651854408</v>
+        <v>35.67878741662427</v>
       </c>
       <c r="I37" t="n">
-        <v>99.51156997955999</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>68.74897568419723</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S37" t="n">
-        <v>2.227398266227449</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X37" t="n">
-        <v>220.2894080617563</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y37" t="n">
-        <v>206.8173261679658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>390.4479524106874</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C38" t="n">
-        <v>390.3523293227055</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D38" t="n">
-        <v>384.748275150713</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E38" t="n">
-        <v>394.5257978711152</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F38" t="n">
-        <v>401.1490924686922</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G38" t="n">
-        <v>388.969985808939</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H38" t="n">
-        <v>292.1283969414021</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I38" t="n">
-        <v>69.81722959894047</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>118.257248996683</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U38" t="n">
-        <v>238.8188713659279</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V38" t="n">
-        <v>330.668163659727</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W38" t="n">
-        <v>364.251682399026</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X38" t="n">
-        <v>377.8604581133193</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y38" t="n">
-        <v>381.2562908642337</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="39">
@@ -3663,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>68.74897568419725</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>139.2572844973382</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T40" t="n">
-        <v>221.4822361759078</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U40" t="n">
-        <v>264.29915052218</v>
+        <v>193.6065091343976</v>
       </c>
       <c r="V40" t="n">
-        <v>255.4758721527162</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>260.6079523890572</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X40" t="n">
-        <v>220.2894080617563</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y40" t="n">
-        <v>206.8173261679658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>183.6192611853836</v>
+        <v>97.56310642661438</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
@@ -3957,16 +3957,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>247.8474286207991</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>41.24458363092516</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3994,7 +3994,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>119.8051733265735</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -4033,10 +4033,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>211.6544656203724</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>182.9658461469756</v>
       </c>
       <c r="X46" t="n">
-        <v>176.2550321649798</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>939.8889726802352</v>
+        <v>1445.078068650521</v>
       </c>
       <c r="C2" t="n">
-        <v>933.8047860339093</v>
+        <v>1034.953477963792</v>
       </c>
       <c r="D2" t="n">
-        <v>933.3812601673739</v>
+        <v>874.2248943164814</v>
       </c>
       <c r="E2" t="n">
-        <v>864.7436377978871</v>
+        <v>459.8846788333781</v>
       </c>
       <c r="F2" t="n">
-        <v>847.7536297919787</v>
+        <v>38.85426678706568</v>
       </c>
       <c r="G2" t="n">
-        <v>439.0253456848109</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960205</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>456.9754223840384</v>
       </c>
       <c r="L2" t="n">
-        <v>176.0078249962696</v>
+        <v>879.7844580477748</v>
       </c>
       <c r="M2" t="n">
-        <v>692.8507596625949</v>
+        <v>1285.51030035136</v>
       </c>
       <c r="N2" t="n">
-        <v>1209.69369432892</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="O2" t="n">
-        <v>1726.536628995245</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="P2" t="n">
-        <v>1726.536628995245</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="Q2" t="n">
-        <v>2047.697635790537</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="R2" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221062</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="U2" t="n">
-        <v>1730.766722221062</v>
+        <v>1451.258844274607</v>
       </c>
       <c r="V2" t="n">
-        <v>1730.766722221062</v>
+        <v>1451.258844274607</v>
       </c>
       <c r="W2" t="n">
-        <v>1347.00642135623</v>
+        <v>1451.258844274607</v>
       </c>
       <c r="X2" t="n">
-        <v>1347.00642135623</v>
+        <v>1451.258844274607</v>
       </c>
       <c r="Y2" t="n">
-        <v>946.0697483043206</v>
+        <v>1451.258844274607</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161366</v>
+        <v>692.2486372270764</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650821</v>
+        <v>558.2535659760222</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844746</v>
+        <v>441.3564081954146</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768026</v>
+        <v>320.8635921877426</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593071</v>
+        <v>211.9037123702472</v>
       </c>
       <c r="G3" t="n">
-        <v>133.2608899736458</v>
+        <v>104.9135996845859</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936187</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960205</v>
+        <v>226.9792442829352</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960205</v>
+        <v>649.7882799466717</v>
       </c>
       <c r="L3" t="n">
-        <v>41.76508562960205</v>
+        <v>906.1063163047468</v>
       </c>
       <c r="M3" t="n">
-        <v>558.6080202959273</v>
+        <v>906.1063163047468</v>
       </c>
       <c r="N3" t="n">
-        <v>1075.450954962253</v>
+        <v>906.1063163047468</v>
       </c>
       <c r="O3" t="n">
-        <v>1571.411346813777</v>
+        <v>906.1063163047468</v>
       </c>
       <c r="P3" t="n">
-        <v>2088.254281480102</v>
+        <v>1328.915351968483</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>1678.759816652467</v>
       </c>
       <c r="R3" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="S3" t="n">
-        <v>1980.264271594411</v>
+        <v>1600.329326129405</v>
       </c>
       <c r="T3" t="n">
-        <v>1820.922407781419</v>
+        <v>1440.987462316414</v>
       </c>
       <c r="U3" t="n">
-        <v>1623.571596919638</v>
+        <v>1243.636651454632</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912672</v>
+        <v>1029.925124447666</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649001</v>
+        <v>1029.925124447666</v>
       </c>
       <c r="X3" t="n">
-        <v>1020.300919787893</v>
+        <v>853.5991425865589</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517233</v>
+        <v>694.1971829503889</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>649.6099637723298</v>
+        <v>690.2963448567647</v>
       </c>
       <c r="C4" t="n">
-        <v>478.5165913340464</v>
+        <v>519.2029724184812</v>
       </c>
       <c r="D4" t="n">
-        <v>319.0219466569564</v>
+        <v>359.7083277413912</v>
       </c>
       <c r="E4" t="n">
-        <v>158.1111315252759</v>
+        <v>198.7975126097107</v>
       </c>
       <c r="F4" t="n">
-        <v>158.1111315252759</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="G4" t="n">
-        <v>158.1111315252759</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960205</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481257</v>
+        <v>48.24893612551246</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570506</v>
+        <v>202.8012638477504</v>
       </c>
       <c r="L4" t="n">
-        <v>470.2970630371111</v>
+        <v>462.698364127811</v>
       </c>
       <c r="M4" t="n">
-        <v>759.5611194776044</v>
+        <v>751.9624205683042</v>
       </c>
       <c r="N4" t="n">
-        <v>1040.399901871855</v>
+        <v>1032.801202962554</v>
       </c>
       <c r="O4" t="n">
-        <v>1299.960512198329</v>
+        <v>1292.361813289029</v>
       </c>
       <c r="P4" t="n">
-        <v>1505.635952447941</v>
+        <v>1498.037253538641</v>
       </c>
       <c r="Q4" t="n">
-        <v>1571.163982250452</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="T4" t="n">
-        <v>1299.499495805762</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="U4" t="n">
-        <v>1016.701348351886</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="V4" t="n">
-        <v>742.815603291408</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="W4" t="n">
-        <v>742.815603291408</v>
+        <v>1341.075612002361</v>
       </c>
       <c r="X4" t="n">
-        <v>649.6099637723298</v>
+        <v>1102.731749862044</v>
       </c>
       <c r="Y4" t="n">
-        <v>649.6099637723298</v>
+        <v>877.996051250809</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>974.6830684215697</v>
+        <v>888.3313057386429</v>
       </c>
       <c r="C5" t="n">
-        <v>968.5988817752439</v>
+        <v>882.247119092317</v>
       </c>
       <c r="D5" t="n">
-        <v>564.1349518683044</v>
+        <v>477.7831891853775</v>
       </c>
       <c r="E5" t="n">
-        <v>553.8351404256051</v>
+        <v>467.4833777426783</v>
       </c>
       <c r="F5" t="n">
-        <v>132.8047283792926</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L5" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M5" t="n">
-        <v>1329.636426430007</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N5" t="n">
-        <v>1846.479361096332</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O5" t="n">
-        <v>1846.479361096332</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
         <v>2047.697635790537</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1730.766722221062</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V5" t="n">
-        <v>1380.929167557543</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="W5" t="n">
-        <v>997.1688666927112</v>
+        <v>1097.595934211262</v>
       </c>
       <c r="X5" t="n">
-        <v>997.1688666927112</v>
+        <v>894.5120813627283</v>
       </c>
       <c r="Y5" t="n">
-        <v>980.8638440456551</v>
+        <v>894.5120813627283</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>558.6080202959273</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>1075.450954962253</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N6" t="n">
-        <v>1592.293889628578</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O6" t="n">
-        <v>2088.254281480102</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>309.4699181015847</v>
+        <v>992.0592770239257</v>
       </c>
       <c r="C7" t="n">
-        <v>158.1111315252759</v>
+        <v>992.0592770239257</v>
       </c>
       <c r="D7" t="n">
-        <v>158.1111315252759</v>
+        <v>992.0592770239257</v>
       </c>
       <c r="E7" t="n">
-        <v>158.1111315252759</v>
+        <v>992.0592770239257</v>
       </c>
       <c r="F7" t="n">
-        <v>158.1111315252759</v>
+        <v>992.0592770239257</v>
       </c>
       <c r="G7" t="n">
-        <v>158.1111315252759</v>
+        <v>824.8088859494691</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>675.2014307549257</v>
       </c>
       <c r="I7" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="J7" t="n">
-        <v>55.84763503481257</v>
+        <v>572.9379342644625</v>
       </c>
       <c r="K7" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867005</v>
       </c>
       <c r="L7" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667611</v>
       </c>
       <c r="M7" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N7" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101505</v>
       </c>
       <c r="O7" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427979</v>
       </c>
       <c r="P7" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q7" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.163982250452</v>
+        <v>2002.981563155502</v>
       </c>
       <c r="S7" t="n">
-        <v>1384.772214130362</v>
+        <v>1816.589795035412</v>
       </c>
       <c r="T7" t="n">
-        <v>1145.223475107064</v>
+        <v>1577.041056012114</v>
       </c>
       <c r="U7" t="n">
-        <v>862.4253276531883</v>
+        <v>1294.242908558238</v>
       </c>
       <c r="V7" t="n">
-        <v>588.5395825927103</v>
+        <v>1020.35716349776</v>
       </c>
       <c r="W7" t="n">
-        <v>309.4699181015847</v>
+        <v>992.0592770239257</v>
       </c>
       <c r="X7" t="n">
-        <v>309.4699181015847</v>
+        <v>992.0592770239257</v>
       </c>
       <c r="Y7" t="n">
-        <v>309.4699181015847</v>
+        <v>992.0592770239257</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>919.6088695046626</v>
+        <v>2082.073505856017</v>
       </c>
       <c r="C8" t="n">
-        <v>913.5246828583367</v>
+        <v>1671.948915169287</v>
       </c>
       <c r="D8" t="n">
-        <v>913.1011569918013</v>
+        <v>1267.484985262347</v>
       </c>
       <c r="E8" t="n">
-        <v>498.760941508698</v>
+        <v>853.1447697792441</v>
       </c>
       <c r="F8" t="n">
-        <v>77.73052946238556</v>
+        <v>432.1143577329317</v>
       </c>
       <c r="G8" t="n">
-        <v>73.04264939562181</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H8" t="n">
         <v>41.76508562960205</v>
@@ -4807,19 +4807,19 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L8" t="n">
-        <v>812.7934917636817</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M8" t="n">
-        <v>1329.636426430007</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N8" t="n">
-        <v>1846.479361096332</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O8" t="n">
-        <v>1846.479361096332</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P8" t="n">
         <v>2047.697635790537</v>
@@ -4831,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U8" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V8" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W8" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X8" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y8" t="n">
-        <v>1329.830049169152</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="9">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>322.7422574146847</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C10" t="n">
-        <v>322.7422574146847</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D10" t="n">
-        <v>322.7422574146847</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E10" t="n">
-        <v>322.7422574146847</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F10" t="n">
-        <v>158.1111315252759</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G10" t="n">
-        <v>158.1111315252759</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H10" t="n">
         <v>158.1111315252759</v>
@@ -4989,25 +4989,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1396.839676560481</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1396.839676560481</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>1114.041529106605</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>840.1557840461269</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W10" t="n">
-        <v>561.0861195550012</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X10" t="n">
-        <v>322.7422574146847</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y10" t="n">
-        <v>322.7422574146847</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="11">
@@ -5029,10 +5029,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F11" t="n">
-        <v>809.8415093489449</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G11" t="n">
-        <v>430.9101360764619</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H11" t="n">
         <v>149.7985495388648</v>
@@ -5041,10 +5041,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
         <v>1598.180070079655</v>
@@ -5077,7 +5077,7 @@
         <v>4137.027566035664</v>
       </c>
       <c r="V11" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W11" t="n">
         <v>3463.023532176683</v>
@@ -5120,25 +5120,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M12" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N12" t="n">
-        <v>874.0699105066985</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O12" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P12" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q12" t="n">
         <v>2139.732893541123</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>687.9858339277382</v>
+        <v>548.5228536411028</v>
       </c>
       <c r="C13" t="n">
-        <v>546.6893723241396</v>
+        <v>407.2263920375041</v>
       </c>
       <c r="D13" t="n">
-        <v>416.9916384817345</v>
+        <v>407.2263920375041</v>
       </c>
       <c r="E13" t="n">
-        <v>285.8777341847389</v>
+        <v>407.2263920375041</v>
       </c>
       <c r="F13" t="n">
-        <v>151.043519130015</v>
+        <v>317.2463129913835</v>
       </c>
       <c r="G13" t="n">
-        <v>151.043519130015</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="H13" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K13" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L13" t="n">
         <v>609.3875320253558</v>
       </c>
       <c r="M13" t="n">
-        <v>927.8555407749237</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N13" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O13" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P13" t="n">
         <v>1761.542230672484</v>
@@ -5223,28 +5223,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R13" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S13" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T13" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="U13" t="n">
-        <v>1547.797168674963</v>
+        <v>1603.272976164879</v>
       </c>
       <c r="V13" t="n">
-        <v>1303.70833444917</v>
+        <v>1359.184141939085</v>
       </c>
       <c r="W13" t="n">
-        <v>1054.43558079273</v>
+        <v>1109.911388282645</v>
       </c>
       <c r="X13" t="n">
-        <v>845.8886294870978</v>
+        <v>901.3644369770128</v>
       </c>
       <c r="Y13" t="n">
-        <v>845.8886294870978</v>
+        <v>706.4256492004623</v>
       </c>
     </row>
     <row r="14">
@@ -5266,10 +5266,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F14" t="n">
-        <v>809.8415093489451</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G14" t="n">
-        <v>430.9101360764621</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H14" t="n">
         <v>149.7985495388648</v>
@@ -5311,7 +5311,7 @@
         <v>4364.291146941469</v>
       </c>
       <c r="U14" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V14" t="n">
         <v>3816.98692220683</v>
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>2808.508546243273</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>2808.508546243273</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>2808.508546243273</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M15" t="n">
-        <v>3084.569701873628</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N15" t="n">
-        <v>3958.227793985246</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O15" t="n">
-        <v>4662.18488453114</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P15" t="n">
-        <v>4662.18488453114</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q15" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R15" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>182.1761681670845</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="C16" t="n">
-        <v>182.1761681670845</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D16" t="n">
         <v>93.2436976906228</v>
@@ -5442,10 +5442,10 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L16" t="n">
-        <v>609.3875320253555</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M16" t="n">
-        <v>927.8555407749234</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N16" t="n">
         <v>1237.898275478248</v>
@@ -5460,28 +5460,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R16" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S16" t="n">
-        <v>1699.679355498665</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T16" t="n">
-        <v>1489.927527310052</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U16" t="n">
-        <v>1236.92629069086</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V16" t="n">
-        <v>992.8374564650672</v>
+        <v>937.361648975152</v>
       </c>
       <c r="W16" t="n">
-        <v>743.5647028086264</v>
+        <v>688.0888953187111</v>
       </c>
       <c r="X16" t="n">
-        <v>535.0177515029945</v>
+        <v>479.5419440130794</v>
       </c>
       <c r="Y16" t="n">
-        <v>340.078963726444</v>
+        <v>284.6031562365289</v>
       </c>
     </row>
     <row r="17">
@@ -5494,19 +5494,19 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C17" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D17" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E17" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F17" t="n">
-        <v>809.8415093489443</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G17" t="n">
-        <v>430.9101360764613</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H17" t="n">
         <v>149.7985495388648</v>
@@ -5554,13 +5554,13 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W17" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X17" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y17" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M18" t="n">
-        <v>1597.308950304478</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N18" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>446.9440468337888</v>
+        <v>708.0510527972459</v>
       </c>
       <c r="C19" t="n">
-        <v>446.9440468337888</v>
+        <v>566.7545911936472</v>
       </c>
       <c r="D19" t="n">
-        <v>317.2463129913837</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="E19" t="n">
-        <v>317.2463129913837</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="F19" t="n">
-        <v>317.2463129913837</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="G19" t="n">
-        <v>179.7928327516119</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H19" t="n">
-        <v>179.7928327516119</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5679,10 +5679,10 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L19" t="n">
-        <v>609.3875320253555</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M19" t="n">
-        <v>927.8555407749234</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N19" t="n">
         <v>1237.898275478248</v>
@@ -5697,28 +5697,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R19" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S19" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T19" t="n">
-        <v>1434.451719820136</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U19" t="n">
-        <v>1181.450483200945</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V19" t="n">
-        <v>1181.450483200945</v>
+        <v>992.8374564650675</v>
       </c>
       <c r="W19" t="n">
-        <v>932.1777295445041</v>
+        <v>743.5647028086266</v>
       </c>
       <c r="X19" t="n">
-        <v>723.6307782388724</v>
+        <v>743.5647028086266</v>
       </c>
       <c r="Y19" t="n">
-        <v>528.6919904623219</v>
+        <v>743.5647028086266</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C20" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D20" t="n">
         <v>1585.618315208991</v>
@@ -5743,7 +5743,7 @@
         <v>809.841509348945</v>
       </c>
       <c r="G20" t="n">
-        <v>430.9101360764619</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H20" t="n">
         <v>149.7985495388648</v>
@@ -5779,10 +5779,10 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T20" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U20" t="n">
         <v>4137.027566035664</v>
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M21" t="n">
-        <v>562.1177108836107</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>371.9936395339932</v>
+        <v>283.2952179625745</v>
       </c>
       <c r="C22" t="n">
-        <v>230.6971779303946</v>
+        <v>283.2952179625745</v>
       </c>
       <c r="D22" t="n">
-        <v>230.6971779303946</v>
+        <v>283.2952179625745</v>
       </c>
       <c r="E22" t="n">
-        <v>230.6971779303946</v>
+        <v>283.2952179625745</v>
       </c>
       <c r="F22" t="n">
-        <v>230.6971779303946</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="G22" t="n">
-        <v>93.2436976906228</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="H22" t="n">
         <v>93.2436976906228</v>
@@ -5916,10 +5916,10 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L22" t="n">
-        <v>609.3875320253555</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M22" t="n">
-        <v>927.8555407749234</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N22" t="n">
         <v>1237.898275478248</v>
@@ -5934,28 +5934,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R22" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S22" t="n">
-        <v>1699.679355498665</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="T22" t="n">
-        <v>1489.927527310052</v>
+        <v>1591.046577105541</v>
       </c>
       <c r="U22" t="n">
-        <v>1268.84096649841</v>
+        <v>1338.04534048635</v>
       </c>
       <c r="V22" t="n">
-        <v>1024.752132272616</v>
+        <v>1093.956506260557</v>
       </c>
       <c r="W22" t="n">
-        <v>775.4793786161756</v>
+        <v>844.6837526041163</v>
       </c>
       <c r="X22" t="n">
-        <v>566.9324273105437</v>
+        <v>636.1368012984846</v>
       </c>
       <c r="Y22" t="n">
-        <v>371.9936395339932</v>
+        <v>441.1980135219341</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.613014133292</v>
       </c>
       <c r="C23" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281247</v>
       </c>
       <c r="D23" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E23" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560574</v>
       </c>
       <c r="F23" t="n">
-        <v>809.8415093489452</v>
+        <v>809.8415093489461</v>
       </c>
       <c r="G23" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764625</v>
       </c>
       <c r="H23" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6022,19 +6022,19 @@
         <v>4364.291146941469</v>
       </c>
       <c r="U23" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V23" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W23" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X23" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y23" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O24" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q24" t="n">
         <v>2139.732893541123</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>785.569208238206</v>
+        <v>503.1075438309887</v>
       </c>
       <c r="C25" t="n">
-        <v>644.2727466346073</v>
+        <v>361.8110822273901</v>
       </c>
       <c r="D25" t="n">
-        <v>514.5750127922022</v>
+        <v>361.8110822273901</v>
       </c>
       <c r="E25" t="n">
-        <v>383.4611084952065</v>
+        <v>230.6971779303945</v>
       </c>
       <c r="F25" t="n">
-        <v>248.6268934404825</v>
+        <v>230.6971779303945</v>
       </c>
       <c r="G25" t="n">
-        <v>111.1734132007108</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
         <v>93.2436976906228</v>
@@ -6147,22 +6147,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K25" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L25" t="n">
-        <v>609.3875320253557</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M25" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N25" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O25" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P25" t="n">
         <v>1761.542230672484</v>
@@ -6174,25 +6174,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S25" t="n">
-        <v>1800.798405294154</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="T25" t="n">
-        <v>1591.046577105541</v>
+        <v>1434.451719820137</v>
       </c>
       <c r="U25" t="n">
-        <v>1591.046577105541</v>
+        <v>1181.450483200946</v>
       </c>
       <c r="V25" t="n">
-        <v>1346.957742879748</v>
+        <v>937.3616489751525</v>
       </c>
       <c r="W25" t="n">
-        <v>1346.957742879748</v>
+        <v>906.5932829131708</v>
       </c>
       <c r="X25" t="n">
-        <v>1138.410791574116</v>
+        <v>698.0463316075391</v>
       </c>
       <c r="Y25" t="n">
-        <v>943.4720037975655</v>
+        <v>503.1075438309887</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2228.872195796475</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C26" t="n">
-        <v>1834.576913652328</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D26" t="n">
-        <v>1445.942292287972</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E26" t="n">
-        <v>1256.94541972898</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F26" t="n">
-        <v>851.7443162252508</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G26" t="n">
-        <v>458.8453406606659</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H26" t="n">
-        <v>163.7661518309667</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4542.733117867823</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T26" t="n">
-        <v>4336.355942357265</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U26" t="n">
-        <v>4095.124759159358</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V26" t="n">
-        <v>3761.116513038422</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W26" t="n">
-        <v>3393.185520716173</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X26" t="n">
-        <v>3008.371431427709</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y26" t="n">
-        <v>2623.264066918382</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="27">
@@ -6308,13 +6308,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L27" t="n">
-        <v>754.331869609911</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M27" t="n">
-        <v>1435.775802995229</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N27" t="n">
         <v>1435.775802995229</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>971.2556508405883</v>
+        <v>228.0779127453466</v>
       </c>
       <c r="C28" t="n">
-        <v>815.9915869448877</v>
+        <v>228.0779127453466</v>
       </c>
       <c r="D28" t="n">
-        <v>672.3262508103805</v>
+        <v>228.0779127453466</v>
       </c>
       <c r="E28" t="n">
-        <v>527.2447442212829</v>
+        <v>228.0779127453466</v>
       </c>
       <c r="F28" t="n">
-        <v>378.442926874457</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>227.0218443425833</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
         <v>93.2436976906228</v>
@@ -6384,52 +6384,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>122.8405523984188</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K28" t="n">
-        <v>292.9071854232423</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L28" t="n">
-        <v>568.3185910058883</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M28" t="n">
-        <v>873.0969527489671</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N28" t="n">
-        <v>1169.450040445803</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O28" t="n">
-        <v>1444.524956074863</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P28" t="n">
-        <v>1665.71470162706</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q28" t="n">
-        <v>1746.757036732157</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R28" t="n">
-        <v>1746.757036732157</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S28" t="n">
-        <v>1576.19457715465</v>
+        <v>1745.581100076926</v>
       </c>
       <c r="T28" t="n">
-        <v>1576.19457715465</v>
+        <v>1535.829271888313</v>
       </c>
       <c r="U28" t="n">
-        <v>1576.19457715465</v>
+        <v>1282.828035269122</v>
       </c>
       <c r="V28" t="n">
-        <v>1576.19457715465</v>
+        <v>1038.739201043329</v>
       </c>
       <c r="W28" t="n">
-        <v>1574.546992358436</v>
+        <v>789.4664473868883</v>
       </c>
       <c r="X28" t="n">
-        <v>1352.032438760702</v>
+        <v>580.9194960812565</v>
       </c>
       <c r="Y28" t="n">
-        <v>1143.12604869205</v>
+        <v>385.9807083047061</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2438.386230178004</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C29" t="n">
-        <v>2044.090948033857</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D29" t="n">
-        <v>1655.4563266695</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E29" t="n">
-        <v>1256.94541972898</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F29" t="n">
-        <v>851.7443162252507</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G29" t="n">
-        <v>458.8453406606658</v>
+        <v>430.910136076463</v>
       </c>
       <c r="H29" t="n">
-        <v>163.7661518309667</v>
+        <v>149.7985495388659</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4662.18488453114</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T29" t="n">
-        <v>4545.869976738793</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U29" t="n">
-        <v>4304.638793540887</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V29" t="n">
-        <v>3970.63054741995</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W29" t="n">
-        <v>3602.699555097702</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X29" t="n">
-        <v>3217.885465809237</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y29" t="n">
-        <v>2832.77810129991</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="30">
@@ -6542,19 +6542,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>286.056555253256</v>
+        <v>212.2732461996272</v>
       </c>
       <c r="K30" t="n">
-        <v>286.056555253256</v>
+        <v>212.2732461996272</v>
       </c>
       <c r="L30" t="n">
-        <v>286.056555253256</v>
+        <v>212.2732461996272</v>
       </c>
       <c r="M30" t="n">
-        <v>1129.033635947823</v>
+        <v>212.2732461996272</v>
       </c>
       <c r="N30" t="n">
-        <v>1789.888428857139</v>
+        <v>1085.931338311245</v>
       </c>
       <c r="O30" t="n">
         <v>1789.888428857139</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.2436976906228</v>
+        <v>338.7710254524906</v>
       </c>
       <c r="C31" t="n">
-        <v>93.2436976906228</v>
+        <v>338.7710254524906</v>
       </c>
       <c r="D31" t="n">
-        <v>93.2436976906228</v>
+        <v>338.7710254524906</v>
       </c>
       <c r="E31" t="n">
-        <v>93.2436976906228</v>
+        <v>338.7710254524906</v>
       </c>
       <c r="F31" t="n">
-        <v>93.2436976906228</v>
+        <v>203.9368103977668</v>
       </c>
       <c r="G31" t="n">
         <v>93.2436976906228</v>
@@ -6621,52 +6621,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>122.8405523984189</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K31" t="n">
-        <v>292.9071854232424</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L31" t="n">
-        <v>568.3185910058885</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M31" t="n">
-        <v>873.0969527489674</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N31" t="n">
-        <v>1169.450040445803</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O31" t="n">
-        <v>1444.524956074863</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P31" t="n">
-        <v>1665.714701627061</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q31" t="n">
-        <v>1746.757036732157</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R31" t="n">
-        <v>1677.31362695014</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S31" t="n">
-        <v>1506.751167372633</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T31" t="n">
-        <v>1283.031736891918</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="U31" t="n">
-        <v>1016.062897980625</v>
+        <v>1393.521147976266</v>
       </c>
       <c r="V31" t="n">
-        <v>758.0064614627299</v>
+        <v>1149.432313750473</v>
       </c>
       <c r="W31" t="n">
-        <v>494.7661055141872</v>
+        <v>900.1595600940323</v>
       </c>
       <c r="X31" t="n">
-        <v>272.2515519164535</v>
+        <v>691.6126087884005</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.2436976906228</v>
+        <v>496.6738210118501</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2367.86377603766</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C32" t="n">
-        <v>1973.568493893513</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D32" t="n">
-        <v>1584.933872529157</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E32" t="n">
-        <v>1186.422965588636</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F32" t="n">
-        <v>781.2218620849068</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G32" t="n">
-        <v>388.3228865203219</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4662.18488453114</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T32" t="n">
-        <v>4455.807709020582</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U32" t="n">
-        <v>4214.576525822675</v>
+        <v>4137.027566035663</v>
       </c>
       <c r="V32" t="n">
-        <v>3900.108093279607</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W32" t="n">
-        <v>3532.177100957358</v>
+        <v>3463.023532176682</v>
       </c>
       <c r="X32" t="n">
-        <v>3147.363011668894</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y32" t="n">
-        <v>2762.255647159567</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="33">
@@ -6782,19 +6782,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N33" t="n">
-        <v>936.2207783851894</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O33" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P33" t="n">
         <v>2139.732893541123</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1071.772388193679</v>
+        <v>224.3576019876184</v>
       </c>
       <c r="C34" t="n">
-        <v>916.5083242979781</v>
+        <v>224.3576019876184</v>
       </c>
       <c r="D34" t="n">
-        <v>772.8429881634711</v>
+        <v>224.3576019876184</v>
       </c>
       <c r="E34" t="n">
-        <v>627.7614815743735</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>478.9596642275477</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>327.5385816956741</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>193.7604350437137</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>122.8405523984189</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K34" t="n">
-        <v>292.9071854232424</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L34" t="n">
-        <v>568.3185910058885</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M34" t="n">
-        <v>873.0969527489674</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N34" t="n">
-        <v>1169.450040445803</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O34" t="n">
-        <v>1444.524956074863</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P34" t="n">
-        <v>1665.714701627061</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q34" t="n">
-        <v>1746.757036732157</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R34" t="n">
-        <v>1746.757036732157</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S34" t="n">
-        <v>1746.757036732157</v>
+        <v>1741.860789319198</v>
       </c>
       <c r="T34" t="n">
-        <v>1746.757036732157</v>
+        <v>1532.108961130585</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.757036732157</v>
+        <v>1279.107724511394</v>
       </c>
       <c r="V34" t="n">
-        <v>1746.757036732157</v>
+        <v>1035.018890285601</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.516680783614</v>
+        <v>785.7461366291601</v>
       </c>
       <c r="X34" t="n">
-        <v>1261.002127185881</v>
+        <v>577.1991853235284</v>
       </c>
       <c r="Y34" t="n">
-        <v>1243.64278604514</v>
+        <v>382.2603975469779</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2228.872195796475</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C35" t="n">
-        <v>1834.576913652328</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D35" t="n">
-        <v>1445.942292287972</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E35" t="n">
-        <v>1047.431385347452</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F35" t="n">
-        <v>851.7443162252507</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G35" t="n">
-        <v>458.8453406606658</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H35" t="n">
-        <v>163.7661518309667</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4542.733117867823</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T35" t="n">
-        <v>4336.355942357265</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U35" t="n">
-        <v>4095.124759159358</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V35" t="n">
-        <v>3761.116513038422</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W35" t="n">
-        <v>3393.185520716173</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X35" t="n">
-        <v>3008.371431427709</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y35" t="n">
-        <v>2623.264066918382</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="36">
@@ -7022,22 +7022,22 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>1402.950983437843</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M36" t="n">
-        <v>2110.173374178493</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N36" t="n">
-        <v>2110.173374178493</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O36" t="n">
-        <v>2110.173374178493</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
-        <v>2110.173374178493</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1071.772388193679</v>
+        <v>531.3909766423335</v>
       </c>
       <c r="C37" t="n">
-        <v>916.5083242979781</v>
+        <v>390.0945150387349</v>
       </c>
       <c r="D37" t="n">
-        <v>772.8429881634711</v>
+        <v>260.3967811963298</v>
       </c>
       <c r="E37" t="n">
-        <v>627.7614815743735</v>
+        <v>129.2828768993342</v>
       </c>
       <c r="F37" t="n">
-        <v>478.9596642275477</v>
+        <v>129.2828768993342</v>
       </c>
       <c r="G37" t="n">
-        <v>327.5385816956741</v>
+        <v>129.2828768993342</v>
       </c>
       <c r="H37" t="n">
-        <v>193.7604350437137</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>122.8405523984189</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K37" t="n">
-        <v>292.9071854232424</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L37" t="n">
-        <v>568.3185910058885</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M37" t="n">
-        <v>873.0969527489674</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N37" t="n">
-        <v>1169.450040445803</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O37" t="n">
-        <v>1444.524956074863</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P37" t="n">
-        <v>1665.714701627061</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q37" t="n">
-        <v>1746.757036732157</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R37" t="n">
-        <v>1677.31362695014</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S37" t="n">
-        <v>1675.063729711526</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="T37" t="n">
-        <v>1675.063729711526</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="U37" t="n">
-        <v>1675.063729711526</v>
+        <v>1391.202311389559</v>
       </c>
       <c r="V37" t="n">
-        <v>1675.063729711526</v>
+        <v>1147.113477163766</v>
       </c>
       <c r="W37" t="n">
-        <v>1675.063729711526</v>
+        <v>897.8407235073248</v>
       </c>
       <c r="X37" t="n">
-        <v>1452.549176113792</v>
+        <v>689.2937722016931</v>
       </c>
       <c r="Y37" t="n">
-        <v>1243.64278604514</v>
+        <v>689.2937722016931</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2438.386230178004</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C38" t="n">
-        <v>2044.090948033857</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D38" t="n">
-        <v>1655.4563266695</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E38" t="n">
-        <v>1256.94541972898</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F38" t="n">
-        <v>851.7443162252507</v>
+        <v>809.8415093489451</v>
       </c>
       <c r="G38" t="n">
-        <v>458.8453406606658</v>
+        <v>430.9101360764622</v>
       </c>
       <c r="H38" t="n">
-        <v>163.7661518309667</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7189,7 +7189,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O38" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P38" t="n">
         <v>4300.467232046283</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4542.733117867823</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T38" t="n">
-        <v>4542.733117867823</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U38" t="n">
-        <v>4301.501934669916</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V38" t="n">
-        <v>3967.49368854898</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W38" t="n">
-        <v>3599.562696226732</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X38" t="n">
-        <v>3217.885465809237</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y38" t="n">
-        <v>2832.77810129991</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="39">
@@ -7256,25 +7256,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>947.1447271725442</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M39" t="n">
-        <v>1790.121807867111</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N39" t="n">
-        <v>1790.121807867111</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O39" t="n">
-        <v>1790.121807867111</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P39" t="n">
-        <v>1790.121807867111</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93.2436976906228</v>
+        <v>836.5456919091937</v>
       </c>
       <c r="C40" t="n">
-        <v>93.2436976906228</v>
+        <v>695.249230305595</v>
       </c>
       <c r="D40" t="n">
-        <v>93.2436976906228</v>
+        <v>565.5514964631899</v>
       </c>
       <c r="E40" t="n">
-        <v>93.2436976906228</v>
+        <v>434.4375921661942</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2436976906228</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>122.8405523984189</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K40" t="n">
-        <v>292.9071854232424</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L40" t="n">
-        <v>568.3185910058885</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M40" t="n">
-        <v>873.0969527489674</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N40" t="n">
-        <v>1169.450040445803</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O40" t="n">
-        <v>1444.524956074863</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P40" t="n">
-        <v>1665.714701627061</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q40" t="n">
-        <v>1746.757036732157</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R40" t="n">
-        <v>1677.313626950139</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S40" t="n">
-        <v>1536.649703215454</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T40" t="n">
-        <v>1312.930272734739</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U40" t="n">
-        <v>1045.961433823446</v>
+        <v>1294.365396871266</v>
       </c>
       <c r="V40" t="n">
-        <v>787.9049973055514</v>
+        <v>1294.365396871266</v>
       </c>
       <c r="W40" t="n">
-        <v>524.6646413570088</v>
+        <v>1045.092643214826</v>
       </c>
       <c r="X40" t="n">
-        <v>302.1500877592752</v>
+        <v>836.5456919091937</v>
       </c>
       <c r="Y40" t="n">
-        <v>93.2436976906228</v>
+        <v>836.5456919091937</v>
       </c>
     </row>
     <row r="41">
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>4526.90380932524</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U41" t="n">
-        <v>4269.84331758475</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V41" t="n">
-        <v>3920.005762921231</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W41" t="n">
-        <v>3536.245462056399</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X41" t="n">
-        <v>3135.602064225352</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y41" t="n">
-        <v>2734.665391173442</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M42" t="n">
-        <v>936.2207783851894</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N42" t="n">
-        <v>1435.775802995229</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q42" t="n">
         <v>2139.732893541123</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>578.280283388802</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C43" t="n">
-        <v>578.280283388802</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D43" t="n">
-        <v>418.7856387117121</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E43" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F43" t="n">
         <v>93.2436976906228</v>
@@ -7593,28 +7593,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U43" t="n">
-        <v>828.6312213896092</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V43" t="n">
-        <v>578.280283388802</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W43" t="n">
-        <v>578.280283388802</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X43" t="n">
-        <v>578.280283388802</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y43" t="n">
-        <v>578.280283388802</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2238.282892603803</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C44" t="n">
-        <v>1828.158301917073</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D44" t="n">
-        <v>1423.694372010133</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E44" t="n">
-        <v>1009.35415652703</v>
+        <v>1130.369483119528</v>
       </c>
       <c r="F44" t="n">
-        <v>588.3237444807176</v>
+        <v>709.339071073216</v>
       </c>
       <c r="G44" t="n">
-        <v>179.5954603735497</v>
+        <v>300.6107869660482</v>
       </c>
       <c r="H44" t="n">
         <v>179.5954603735497</v>
@@ -7651,7 +7651,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
         <v>1598.180070079655</v>
@@ -7681,19 +7681,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V44" t="n">
-        <v>3833.844444016082</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W44" t="n">
-        <v>3450.08414315125</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X44" t="n">
-        <v>3049.440745320202</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y44" t="n">
-        <v>2648.504072268292</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="45">
@@ -7730,25 +7730,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>947.1447271725442</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M45" t="n">
-        <v>1236.515282066875</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N45" t="n">
-        <v>2110.173374178493</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O45" t="n">
-        <v>2110.173374178493</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P45" t="n">
-        <v>2110.173374178493</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q45" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>749.3736558270855</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C46" t="n">
-        <v>578.280283388802</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D46" t="n">
-        <v>418.7856387117121</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
         <v>93.2436976906228</v>
@@ -7830,28 +7830,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S46" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T46" t="n">
-        <v>1622.642594311473</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U46" t="n">
-        <v>1339.844446857597</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="V46" t="n">
-        <v>1339.844446857597</v>
+        <v>741.1372444492208</v>
       </c>
       <c r="W46" t="n">
-        <v>1339.844446857597</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X46" t="n">
-        <v>1161.809060832365</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y46" t="n">
-        <v>937.0733622211299</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>516.2162236769913</v>
       </c>
       <c r="L2" t="n">
-        <v>231.0841246958424</v>
+        <v>522.565232066619</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>503.1143075919802</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>519.9921247603935</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>482.9056167883896</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>315.0216312432482</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>558.7215717793176</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728293</v>
+        <v>481.3394690065779</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
         <v>95.48539806284482</v>
@@ -8230,13 +8230,13 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>228.7885022587807</v>
       </c>
       <c r="P5" t="n">
-        <v>296.9001458002834</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8294,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>558.7215717793176</v>
+        <v>564.4415429491208</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,13 +8455,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L8" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>296.5410069764447</v>
       </c>
       <c r="N8" t="n">
         <v>614.9758611266449</v>
@@ -8470,7 +8470,7 @@
         <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>296.9001458002834</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
         <v>90.03380439915205</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8713,7 +8713,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,28 +8768,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M12" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>841.9067396726143</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -8947,7 +8947,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9008,28 +9008,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M15" t="n">
-        <v>336.4139358902909</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>601.0963663600584</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
         <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M21" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,25 +9719,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>57.751479</v>
+        <v>75.97815626606008</v>
       </c>
       <c r="P24" t="n">
-        <v>387.4455168657486</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9956,16 +9956,16 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>745.8914891781321</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>53.19339339374999</v>
+        <v>281.1102389695264</v>
       </c>
       <c r="O27" t="n">
         <v>768.8192472281761</v>
@@ -10190,7 +10190,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>246.129700984478</v>
+        <v>171.6011059808126</v>
       </c>
       <c r="K30" t="n">
         <v>55.82578278461539</v>
@@ -10199,13 +10199,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>720.7234872415446</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10430,22 +10430,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>53.19339339374999</v>
+        <v>281.1102389695264</v>
       </c>
       <c r="O33" t="n">
-        <v>706.040592805458</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
         <v>56.69261850483872</v>
@@ -10670,25 +10670,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>771.9303349915991</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>57.751479</v>
+        <v>548.9835243030855</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10904,28 +10904,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>548.9835243030855</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>379.9770289203761</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11077,10 +11077,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11138,28 +11138,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>548.9835243030855</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11299,7 +11299,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
@@ -11378,28 +11378,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>349.8577735306707</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>548.9835243030855</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>44.40559464851735</v>
       </c>
       <c r="G13" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>61.39061569126159</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I13" t="n">
-        <v>85.68364371037907</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S13" t="n">
         <v>155.0289087125508</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>139.8834969875627</v>
+        <v>106.7614006308816</v>
       </c>
       <c r="D16" t="n">
-        <v>40.35761073228407</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E16" t="n">
-        <v>129.8027652540258</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F16" t="n">
         <v>133.4858729041767</v>
@@ -23673,7 +23673,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I16" t="n">
-        <v>85.68364371037914</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501638</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>75.39330341151827</v>
+        <v>121.1652540924991</v>
       </c>
       <c r="C19" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>129.8027652540258</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F19" t="n">
         <v>133.4858729041767</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D22" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E22" t="n">
-        <v>129.8027652540258</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F22" t="n">
-        <v>133.4858729041767</v>
+        <v>63.94730675120442</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H22" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>85.68364371037914</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501638</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>31.59552904947364</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>100.8620205612728</v>
+        <v>118.6124389162598</v>
       </c>
       <c r="I25" t="n">
-        <v>85.68364371037913</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,19 +24414,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>246.7800261198764</v>
+        <v>216.3193437185144</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>207.4188940377138</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I28" t="n">
-        <v>99.51156997956006</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>68.7489756841973</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>45.44272713247835</v>
       </c>
       <c r="T28" t="n">
-        <v>221.4822361759079</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>264.29915052218</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>255.4758721527162</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>258.9768434408056</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>118.257248996683</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>89.16164504102983</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>170.1516938729468</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>153.7114232567435</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D31" t="n">
-        <v>142.2286827731619</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E31" t="n">
-        <v>143.6306915232066</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F31" t="n">
-        <v>147.3137991733575</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>149.9068717065549</v>
+        <v>26.49276385730143</v>
       </c>
       <c r="H31" t="n">
-        <v>132.4403651854408</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I31" t="n">
-        <v>99.51156997955999</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.5995504843934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>69.81722959894046</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>118.257248996683</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24976,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>19.34441544208966</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>68.74897568419723</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S34" t="n">
-        <v>168.8568349817317</v>
+        <v>41.75961948232725</v>
       </c>
       <c r="T34" t="n">
-        <v>221.4822361759078</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>264.29915052218</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>255.4758721527161</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>189.6315784386325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25165,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>207.4188940377133</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>82.93365149963559</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>166.6294367155043</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.4822361759078</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U37" t="n">
-        <v>264.29915052218</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>255.4758721527161</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>260.6079523890572</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="38">
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>204.3134037554527</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>3.105490282260575</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>170.1516938729469</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C40" t="n">
-        <v>153.7114232567436</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>142.228682773162</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>143.6306915232066</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>147.3137991733576</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>149.9068717065549</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H40" t="n">
-        <v>132.4403651854408</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>99.51156997956001</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S40" t="n">
-        <v>29.59955048439349</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>56.86471511860145</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>222.4997066824609</v>
+        <v>308.5558614412301</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>23.29945898907414</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>194.7158398879883</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>187.9942390719856</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25921,10 +25921,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>134.6847134965117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>165.577887163712</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>93.31312169923874</v>
       </c>
       <c r="X46" t="n">
-        <v>59.70539135393363</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>576139.3470547037</v>
+        <v>571550.9609860375</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>579812.1289323149</v>
+        <v>579812.128932315</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>579812.1289323148</v>
+        <v>579812.1289323149</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>559663.4874338121</v>
+        <v>579812.1289323149</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>559663.4874338122</v>
+        <v>579812.1289323149</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>559663.4874338122</v>
+        <v>579812.1289323149</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>559663.4874338121</v>
+        <v>579812.1289323149</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>559663.4874338122</v>
+        <v>579812.1289323149</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>536829.2846605817</v>
+        <v>536829.2846605818</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>602664.8542200903</v>
+        <v>602664.8542200904</v>
       </c>
       <c r="C2" t="n">
-        <v>602664.8542200907</v>
+        <v>602664.8542200908</v>
       </c>
       <c r="D2" t="n">
         <v>602664.8542200907</v>
@@ -26328,34 +26328,34 @@
         <v>584042.920941564</v>
       </c>
       <c r="G2" t="n">
+        <v>584042.9209415641</v>
+      </c>
+      <c r="H2" t="n">
+        <v>584042.9209415643</v>
+      </c>
+      <c r="I2" t="n">
+        <v>584042.9209415641</v>
+      </c>
+      <c r="J2" t="n">
+        <v>584042.9209415641</v>
+      </c>
+      <c r="K2" t="n">
+        <v>584042.9209415641</v>
+      </c>
+      <c r="L2" t="n">
         <v>584042.920941564</v>
       </c>
-      <c r="H2" t="n">
-        <v>584042.920941564</v>
-      </c>
-      <c r="I2" t="n">
-        <v>584042.9209415639</v>
-      </c>
-      <c r="J2" t="n">
-        <v>561452.019867485</v>
-      </c>
-      <c r="K2" t="n">
-        <v>561452.0198674849</v>
-      </c>
-      <c r="L2" t="n">
-        <v>561452.0198674849</v>
-      </c>
       <c r="M2" t="n">
-        <v>561452.0198674848</v>
+        <v>584042.9209415641</v>
       </c>
       <c r="N2" t="n">
-        <v>561452.0198674847</v>
+        <v>584042.9209415641</v>
       </c>
       <c r="O2" t="n">
-        <v>535850.0349399232</v>
+        <v>535850.0349399236</v>
       </c>
       <c r="P2" t="n">
-        <v>535850.0349399234</v>
+        <v>535850.0349399237</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.5098931141</v>
+        <v>143124.2752108468</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>30686.46086668798</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26386,13 +26386,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>149131.6131716206</v>
+        <v>135342.0294691539</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>24445.77426110939</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193745.8212557931</v>
+        <v>214756.445336101</v>
       </c>
       <c r="C4" t="n">
         <v>193745.8212557931</v>
@@ -26426,40 +26426,40 @@
         <v>193745.8212557931</v>
       </c>
       <c r="E4" t="n">
-        <v>89457.14057469093</v>
+        <v>89457.14057469091</v>
       </c>
       <c r="F4" t="n">
-        <v>89457.14057469086</v>
+        <v>89457.14057469089</v>
       </c>
       <c r="G4" t="n">
-        <v>89457.14057469086</v>
+        <v>89457.1405746909</v>
       </c>
       <c r="H4" t="n">
-        <v>89457.14057469087</v>
+        <v>89457.1405746909</v>
       </c>
       <c r="I4" t="n">
-        <v>89457.14057469087</v>
+        <v>89457.14057469097</v>
       </c>
       <c r="J4" t="n">
-        <v>75483.38881496122</v>
+        <v>89457.14057469096</v>
       </c>
       <c r="K4" t="n">
-        <v>75483.38881496129</v>
+        <v>89457.14057469096</v>
       </c>
       <c r="L4" t="n">
-        <v>75483.38881496129</v>
+        <v>89457.14057469096</v>
       </c>
       <c r="M4" t="n">
-        <v>75483.38881496129</v>
+        <v>89457.14057469096</v>
       </c>
       <c r="N4" t="n">
-        <v>75483.38881496128</v>
+        <v>89457.14057469089</v>
       </c>
       <c r="O4" t="n">
-        <v>59647.11115782199</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="P4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849755</v>
+        <v>59594.05390742946</v>
       </c>
       <c r="C5" t="n">
         <v>65369.06507849755</v>
@@ -26478,7 +26478,7 @@
         <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="F5" t="n">
         <v>73345.15677686482</v>
@@ -26490,22 +26490,22 @@
         <v>73345.15677686482</v>
       </c>
       <c r="I5" t="n">
+        <v>73345.15677686484</v>
+      </c>
+      <c r="J5" t="n">
+        <v>73345.15677686484</v>
+      </c>
+      <c r="K5" t="n">
+        <v>73345.15677686484</v>
+      </c>
+      <c r="L5" t="n">
+        <v>73345.15677686484</v>
+      </c>
+      <c r="M5" t="n">
+        <v>73345.15677686484</v>
+      </c>
+      <c r="N5" t="n">
         <v>73345.15677686482</v>
-      </c>
-      <c r="J5" t="n">
-        <v>72182.65684334106</v>
-      </c>
-      <c r="K5" t="n">
-        <v>72182.65684334106</v>
-      </c>
-      <c r="L5" t="n">
-        <v>72182.65684334106</v>
-      </c>
-      <c r="M5" t="n">
-        <v>72182.65684334106</v>
-      </c>
-      <c r="N5" t="n">
-        <v>72182.65684334106</v>
       </c>
       <c r="O5" t="n">
         <v>70865.21024487332</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>168594.4579926856</v>
+        <v>185190.0797657131</v>
       </c>
       <c r="C6" t="n">
-        <v>343549.9678858001</v>
+        <v>312863.5070191122</v>
       </c>
       <c r="D6" t="n">
-        <v>343549.9678858001</v>
+        <v>343549.9678858</v>
       </c>
       <c r="E6" t="n">
-        <v>205511.7073094946</v>
+        <v>205461.3777600933</v>
       </c>
       <c r="F6" t="n">
-        <v>421240.6235900084</v>
+        <v>421190.2940406069</v>
       </c>
       <c r="G6" t="n">
-        <v>421240.6235900084</v>
+        <v>421190.294040607</v>
       </c>
       <c r="H6" t="n">
-        <v>421240.6235900084</v>
+        <v>421190.2940406071</v>
       </c>
       <c r="I6" t="n">
-        <v>421240.6235900082</v>
+        <v>421190.2940406069</v>
       </c>
       <c r="J6" t="n">
-        <v>264654.3610375621</v>
+        <v>285848.2645714531</v>
       </c>
       <c r="K6" t="n">
-        <v>413785.9742091825</v>
+        <v>396744.5197794975</v>
       </c>
       <c r="L6" t="n">
-        <v>413785.9742091825</v>
+        <v>421190.2940406068</v>
       </c>
       <c r="M6" t="n">
-        <v>253427.5237084997</v>
+        <v>260831.8435399242</v>
       </c>
       <c r="N6" t="n">
-        <v>413785.9742091824</v>
+        <v>421190.294040607</v>
       </c>
       <c r="O6" t="n">
-        <v>405337.7135372279</v>
+        <v>405157.1329445792</v>
       </c>
       <c r="P6" t="n">
-        <v>405337.7135372282</v>
+        <v>405157.1329445793</v>
       </c>
     </row>
   </sheetData>
@@ -26694,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F2" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G2" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H2" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I2" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="J2" t="n">
-        <v>15.67101545715704</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K2" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L2" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M2" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N2" t="n">
-        <v>15.6710154571571</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>427.0798340037742</v>
       </c>
       <c r="C4" t="n">
         <v>522.0635703700256</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26928,10 +26928,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>15.6710154571571</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>427.0798340037742</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>94.98373636625138</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>427.0798340037742</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>94.98373636625138</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27165,10 +27165,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>15.6710154571571</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>427.0798340037742</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>94.98373636625138</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>241.297992797033</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>400</v>
-      </c>
-      <c r="E2" t="n">
-        <v>342.2455671824804</v>
-      </c>
-      <c r="F2" t="n">
-        <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>136.9709420431514</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27520,7 +27520,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
@@ -27557,7 +27557,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>56.01419322081114</v>
       </c>
       <c r="X4" t="n">
-        <v>143.686840395026</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27636,7 +27636,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>195.5839495326889</v>
       </c>
       <c r="Y5" t="n">
-        <v>380.7853339008053</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>19.53724000335501</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
@@ -27788,10 +27788,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>248.2640602371182</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>18.19522188379977</v>
       </c>
       <c r="H8" t="n">
-        <v>276.8346242701996</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -27921,7 +27921,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>11.94678780581737</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C14" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D14" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E14" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F14" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G14" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H14" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I14" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T14" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U14" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V14" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W14" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X14" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C16" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D16" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E16" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F16" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G16" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H16" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I16" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J16" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K16" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L16" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M16" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N16" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O16" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P16" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R16" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S16" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T16" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U16" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V16" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W16" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X16" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C17" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D17" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E17" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F17" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G17" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H17" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I17" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T17" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U17" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V17" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W17" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X17" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C19" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D19" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E19" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F19" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G19" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H19" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I19" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J19" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K19" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L19" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M19" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N19" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O19" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P19" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R19" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S19" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T19" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U19" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V19" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W19" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X19" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C20" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D20" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E20" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F20" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G20" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H20" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I20" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T20" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U20" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V20" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W20" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X20" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y20" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C22" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D22" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E22" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F22" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G22" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H22" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I22" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J22" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K22" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L22" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M22" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N22" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O22" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P22" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R22" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S22" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T22" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U22" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V22" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W22" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X22" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.49894172633796</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="C23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="D23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="E23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="F23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="G23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="H23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="I23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="T23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="U23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="V23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="W23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="X23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633806</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="C25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="D25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="E25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="F25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="G25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="H25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="I25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="J25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="K25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="L25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="M25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="N25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="O25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="P25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="R25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="S25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="T25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="U25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="V25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="W25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="X25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633806</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633806</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>15.67101545715704</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C26" t="n">
-        <v>15.67101545715704</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D26" t="n">
-        <v>15.67101545715704</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E26" t="n">
-        <v>15.67101545715704</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F26" t="n">
-        <v>15.67101545715704</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G26" t="n">
-        <v>15.67101545715704</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H26" t="n">
-        <v>15.67101545715704</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I26" t="n">
-        <v>15.67101545715704</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>15.67101545715704</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T26" t="n">
-        <v>15.67101545715704</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U26" t="n">
-        <v>15.67101545715704</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V26" t="n">
-        <v>15.67101545715704</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W26" t="n">
-        <v>15.67101545715704</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X26" t="n">
-        <v>15.67101545715704</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y26" t="n">
-        <v>15.67101545715704</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>15.67101545715704</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C28" t="n">
-        <v>15.67101545715704</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D28" t="n">
-        <v>15.67101545715704</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E28" t="n">
-        <v>15.67101545715704</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F28" t="n">
-        <v>15.67101545715704</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G28" t="n">
-        <v>15.67101545715704</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H28" t="n">
-        <v>15.67101545715704</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I28" t="n">
-        <v>15.67101545715704</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J28" t="n">
-        <v>15.67101545715704</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K28" t="n">
-        <v>15.67101545715704</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L28" t="n">
-        <v>15.67101545715704</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M28" t="n">
-        <v>15.67101545715704</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N28" t="n">
-        <v>15.67101545715704</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O28" t="n">
-        <v>15.67101545715704</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P28" t="n">
-        <v>15.67101545715704</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.67101545715704</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R28" t="n">
-        <v>15.67101545715704</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S28" t="n">
-        <v>15.67101545715704</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T28" t="n">
-        <v>15.67101545715704</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U28" t="n">
-        <v>15.67101545715704</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V28" t="n">
-        <v>15.67101545715704</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W28" t="n">
-        <v>15.67101545715704</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X28" t="n">
-        <v>15.67101545715704</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y28" t="n">
-        <v>15.67101545715704</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C29" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D29" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E29" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F29" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G29" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H29" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I29" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T29" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U29" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V29" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W29" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X29" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y29" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C31" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D31" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E31" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F31" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G31" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H31" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I31" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J31" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K31" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L31" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M31" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N31" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O31" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P31" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R31" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S31" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T31" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U31" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V31" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W31" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X31" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y31" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C32" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D32" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E32" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F32" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G32" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H32" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I32" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T32" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U32" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V32" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W32" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X32" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y32" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C34" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D34" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E34" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F34" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G34" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H34" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I34" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J34" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K34" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L34" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M34" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N34" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O34" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P34" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R34" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S34" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T34" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U34" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V34" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W34" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X34" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y34" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C35" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D35" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E35" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F35" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G35" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H35" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I35" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T35" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U35" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V35" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W35" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X35" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y35" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C37" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D37" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E37" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F37" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G37" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H37" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I37" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J37" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K37" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L37" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M37" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N37" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O37" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P37" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R37" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S37" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T37" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U37" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V37" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W37" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X37" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y37" t="n">
-        <v>15.67101545715711</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>15.6710154571571</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C38" t="n">
-        <v>15.6710154571571</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D38" t="n">
-        <v>15.6710154571571</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E38" t="n">
-        <v>15.6710154571571</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F38" t="n">
-        <v>15.6710154571571</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G38" t="n">
-        <v>15.6710154571571</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H38" t="n">
-        <v>15.6710154571571</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I38" t="n">
-        <v>15.6710154571571</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>15.6710154571571</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T38" t="n">
-        <v>15.6710154571571</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U38" t="n">
-        <v>15.6710154571571</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V38" t="n">
-        <v>15.6710154571571</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W38" t="n">
-        <v>15.6710154571571</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X38" t="n">
-        <v>15.6710154571571</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y38" t="n">
-        <v>15.6710154571571</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y40" t="n">
-        <v>15.6710154571571</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="41">
@@ -34701,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>427.0798340037742</v>
       </c>
       <c r="L2" t="n">
-        <v>135.5987266329975</v>
+        <v>427.0798340037742</v>
       </c>
       <c r="M2" t="n">
-        <v>522.0635703700256</v>
+        <v>409.8240831349348</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700256</v>
+        <v>427.0798340037742</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>427.0798340037742</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>258.9071074323991</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700256</v>
+        <v>427.0798340037742</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34950,13 +34950,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="P5" t="n">
-        <v>203.2507825193993</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>506.6900639491208</v>
+      </c>
+      <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M6" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N6" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O6" t="n">
-        <v>500.9700927793177</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,13 +35175,13 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700256</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="N8" t="n">
         <v>522.0635703700256</v>
@@ -35190,7 +35190,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>203.2507825193993</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35433,7 +35433,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>788.7133462788644</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.72373910533855</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K13" t="n">
         <v>185.6124040720329</v>
@@ -35576,19 +35576,19 @@
         <v>292.0212652415507</v>
       </c>
       <c r="M13" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N13" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O13" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P13" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.68887081978332</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35667,7 +35667,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R14" t="n">
         <v>40.9663087773382</v>
@@ -35728,28 +35728,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M15" t="n">
-        <v>278.8496521518734</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.72373910533848</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K16" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L16" t="n">
-        <v>292.0212652415506</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M16" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N16" t="n">
-        <v>313.1744794983079</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O16" t="n">
-        <v>291.6813763995441</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P16" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.68887081978325</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.72373910533848</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K19" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L19" t="n">
-        <v>292.0212652415506</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M19" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N19" t="n">
-        <v>313.1744794983079</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O19" t="n">
-        <v>291.6813763995441</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P19" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.68887081978325</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M21" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>43.72373910533848</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K22" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L22" t="n">
-        <v>292.0212652415506</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M22" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N22" t="n">
-        <v>313.1744794983079</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O22" t="n">
-        <v>291.6813763995441</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P22" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.68887081978325</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="P24" t="n">
-        <v>333.1858818629449</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.7237391053385</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K25" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L25" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M25" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N25" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O25" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P25" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>688.3272054397147</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>227.9168455757764</v>
       </c>
       <c r="O27" t="n">
         <v>711.0677682281761</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>29.89581283615757</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K28" t="n">
-        <v>171.784477802852</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L28" t="n">
-        <v>278.1933389723698</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M28" t="n">
-        <v>307.8569310536149</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N28" t="n">
-        <v>299.346553229127</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O28" t="n">
-        <v>277.8534501303633</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P28" t="n">
-        <v>223.4239854062604</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.86094455060233</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>194.760462184478</v>
+        <v>120.2318671808126</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36919,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>667.5300938477947</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>29.89581283615764</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K31" t="n">
-        <v>171.7844778028521</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L31" t="n">
-        <v>278.1933389723698</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M31" t="n">
-        <v>307.856931053615</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N31" t="n">
-        <v>299.3465532291271</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O31" t="n">
-        <v>277.8534501303633</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P31" t="n">
-        <v>223.4239854062605</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.8609445506024</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>227.9168455757764</v>
       </c>
       <c r="O33" t="n">
-        <v>648.289113805458</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>29.89581283615764</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K34" t="n">
-        <v>171.7844778028521</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L34" t="n">
-        <v>278.1933389723698</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M34" t="n">
-        <v>307.856931053615</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N34" t="n">
-        <v>299.3465532291271</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O34" t="n">
-        <v>277.8534501303633</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P34" t="n">
-        <v>223.4239854062605</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q34" t="n">
-        <v>81.8609445506024</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37390,25 +37390,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>714.3660512531817</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>29.89581283615764</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K37" t="n">
-        <v>171.7844778028521</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L37" t="n">
-        <v>278.1933389723698</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M37" t="n">
-        <v>307.856931053615</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N37" t="n">
-        <v>299.3465532291271</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O37" t="n">
-        <v>277.8534501303633</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P37" t="n">
-        <v>223.4239854062605</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q37" t="n">
-        <v>81.8609445506024</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>323.2844104155374</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>29.89581283615762</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K40" t="n">
-        <v>171.784477802852</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L40" t="n">
-        <v>278.1933389723698</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M40" t="n">
-        <v>307.856931053615</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N40" t="n">
-        <v>299.346553229127</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O40" t="n">
-        <v>277.8534501303633</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P40" t="n">
-        <v>223.4239854062605</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q40" t="n">
-        <v>81.86094455060238</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37797,10 +37797,10 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R41" t="n">
         <v>40.9663087773382</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
@@ -38098,28 +38098,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>292.2934897922533</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
